--- a/Cerdos y Datos.xlsx
+++ b/Cerdos y Datos.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27612"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27615"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{052344DB-7272-47E1-A3CB-675662E627A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{098D685E-7910-4B94-9919-A7399DB6438B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monstruos" sheetId="7" r:id="rId1"/>
@@ -1214,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2AFDDB-2A5F-4F36-BEF1-44996E23E470}">
   <dimension ref="B3:AA29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2294,7 +2294,7 @@
         <v>30</v>
       </c>
       <c r="T16" s="7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="U16" s="7" t="s">
         <v>30</v>
@@ -3014,7 +3014,7 @@
         <v>30</v>
       </c>
       <c r="T25" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U25" s="11" t="s">
         <v>30</v>
@@ -4495,7 +4495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3FF79E-C399-4C07-9882-63069AD31E4A}">
   <dimension ref="A2:W11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
